--- a/6月/商城支付/结合测试/采购商城支付case.xlsx
+++ b/6月/商城支付/结合测试/采购商城支付case.xlsx
@@ -52,7 +52,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>商城支付</t>
+    <t>收款码</t>
   </si>
   <si>
     <t>收款码UI</t>
@@ -118,6 +118,9 @@
     <t>可以成功付款并金额正确</t>
   </si>
   <si>
+    <t>数值</t>
+  </si>
+  <si>
     <t>✘</t>
   </si>
   <si>
@@ -266,9 +269,6 @@
   </si>
   <si>
     <t>锁定金额+可提现金额，新订单支付成功更新金额</t>
-  </si>
-  <si>
-    <t>数值</t>
   </si>
   <si>
     <t>新订单支付成功金额没更新</t>
@@ -402,10 +402,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -432,6 +432,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -449,22 +523,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,95 +569,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -591,25 +591,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,157 +735,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,6 +838,47 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -847,6 +888,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -870,47 +926,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -919,31 +934,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -952,133 +952,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1663,23 +1663,23 @@
         <v>33</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="27.6" customHeight="1" spans="1:7">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>23</v>
@@ -1693,10 +1693,10 @@
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>23</v>
@@ -1708,56 +1708,56 @@
     </row>
     <row r="15" ht="35" customHeight="1" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:7">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="37" customHeight="1" spans="1:7">
       <c r="A17" s="14"/>
       <c r="B17" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>23</v>
@@ -1771,10 +1771,10 @@
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>23</v>
@@ -1788,10 +1788,10 @@
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>23</v>
@@ -1805,10 +1805,10 @@
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>23</v>
@@ -1822,10 +1822,10 @@
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>23</v>
@@ -1839,10 +1839,10 @@
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>23</v>
@@ -1856,10 +1856,10 @@
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>23</v>
@@ -1873,29 +1873,29 @@
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:7">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>23</v>
@@ -1909,10 +1909,10 @@
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>23</v>
@@ -1926,10 +1926,10 @@
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>23</v>
@@ -1943,10 +1943,10 @@
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>23</v>
@@ -1960,10 +1960,10 @@
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>23</v>
@@ -1977,29 +1977,29 @@
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" ht="33" customHeight="1" spans="1:7">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>23</v>
@@ -2011,22 +2011,22 @@
     </row>
     <row r="32" ht="51" customHeight="1" spans="1:7">
       <c r="A32" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>85</v>
@@ -2042,10 +2042,10 @@
         <v>87</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>85</v>
@@ -2061,10 +2061,10 @@
         <v>89</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>85</v>
@@ -2127,7 +2127,7 @@
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>97</v>
@@ -2163,7 +2163,7 @@
         <v>101</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -2196,7 +2196,7 @@
         <v>23</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>106</v>
@@ -2215,7 +2215,7 @@
         <v>23</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>109</v>
@@ -2240,7 +2240,7 @@
       <c r="A45" s="14"/>
       <c r="B45" s="15"/>
       <c r="C45" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>112</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>109</v>
@@ -2335,7 +2335,7 @@
         <v>120</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -2353,7 +2353,7 @@
         <v>23</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>123</v>
@@ -2374,7 +2374,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>126</v>

--- a/6月/商城支付/结合测试/采购商城支付case.xlsx
+++ b/6月/商城支付/结合测试/采购商城支付case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9705"/>
+    <workbookView windowWidth="20385" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="127">
   <si>
     <t>写case人</t>
   </si>
@@ -402,10 +402,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -433,7 +433,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,13 +502,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -461,9 +509,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,17 +530,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,22 +554,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,51 +569,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -591,37 +591,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,139 +759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,58 +837,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,168 +879,206 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,6 +1102,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1109,81 +1130,177 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1193,12 +1310,34 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A4:G51" totalsRowShown="0">
+  <autoFilter ref="A4:G51">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="equal" val="✘"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" name="测试模块"/>
+    <tableColumn id="2" name="测试项目"/>
+    <tableColumn id="3" name="细分项目" dataDxfId="0"/>
+    <tableColumn id="4" name="预期结果" dataDxfId="1"/>
+    <tableColumn id="5" name="测试类型" dataDxfId="2"/>
+    <tableColumn id="6" name="测试结果" dataDxfId="3"/>
+    <tableColumn id="7" name="备注" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="303030"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1451,13 +1590,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C49" sqref="C49:G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.3333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
@@ -1524,11 +1663,11 @@
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="26.4" customHeight="1" spans="1:7">
+    <row r="5" ht="26.4" hidden="1" customHeight="1" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1547,9 +1686,9 @@
       <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" ht="26.4" customHeight="1" spans="1:7">
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" ht="26.4" hidden="1" customHeight="1" spans="1:7">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
@@ -1564,9 +1703,9 @@
       <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" ht="39.6" customHeight="1" spans="1:7">
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" ht="39.6" hidden="1" customHeight="1" spans="1:7">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>20</v>
@@ -1583,113 +1722,113 @@
       <c r="F7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="21.6" customHeight="1" spans="1:7">
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" ht="21.6" hidden="1" customHeight="1" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" ht="25.8" customHeight="1" spans="1:7">
+      <c r="E8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" ht="25.8" hidden="1" customHeight="1" spans="1:7">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" ht="28.2" customHeight="1" spans="1:7">
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" ht="28.2" hidden="1" customHeight="1" spans="1:7">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" ht="22.8" customHeight="1" spans="1:7">
+      <c r="E10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" ht="22.8" hidden="1" customHeight="1" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="10"/>
+      <c r="E11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:7">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1" spans="1:7">
+    <row r="13" ht="27.6" hidden="1" customHeight="1" spans="1:7">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" ht="25.2" customHeight="1" spans="1:7">
+      <c r="E13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" ht="25.2" hidden="1" customHeight="1" spans="1:7">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
@@ -1704,53 +1843,53 @@
       <c r="F14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" ht="35" customHeight="1" spans="1:7">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:7">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" ht="37" customHeight="1" spans="1:7">
-      <c r="A17" s="14"/>
-      <c r="B17" s="12" t="s">
+    <row r="17" ht="37" hidden="1" customHeight="1" spans="1:7">
+      <c r="A17" s="11"/>
+      <c r="B17" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1767,9 +1906,9 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" ht="27" customHeight="1" spans="1:7">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+    <row r="18" ht="27" hidden="1" customHeight="1" spans="1:7">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="6" t="s">
         <v>52</v>
       </c>
@@ -1784,9 +1923,9 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" ht="27" customHeight="1" spans="1:7">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+    <row r="19" ht="27" hidden="1" customHeight="1" spans="1:7">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
@@ -1801,9 +1940,9 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" ht="27" customHeight="1" spans="1:7">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+    <row r="20" ht="27" hidden="1" customHeight="1" spans="1:7">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="6" t="s">
         <v>56</v>
       </c>
@@ -1818,9 +1957,9 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" ht="27" customHeight="1" spans="1:7">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+    <row r="21" ht="27" hidden="1" customHeight="1" spans="1:7">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="6" t="s">
         <v>58</v>
       </c>
@@ -1835,26 +1974,26 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" ht="27" customHeight="1" spans="1:7">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="16" t="s">
+    <row r="22" ht="27" hidden="1" customHeight="1" spans="1:7">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" ht="27" customHeight="1" spans="1:7">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="E22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" ht="27" hidden="1" customHeight="1" spans="1:7">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="6" t="s">
         <v>62</v>
       </c>
@@ -1870,27 +2009,27 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" ht="39" customHeight="1" spans="1:7">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" ht="25" customHeight="1" spans="1:7">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+    <row r="25" ht="25" hidden="1" customHeight="1" spans="1:7">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="6" t="s">
         <v>67</v>
       </c>
@@ -1905,9 +2044,9 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" ht="26" customHeight="1" spans="1:7">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+    <row r="26" ht="26" hidden="1" customHeight="1" spans="1:7">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="6" t="s">
         <v>69</v>
       </c>
@@ -1922,9 +2061,9 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" ht="28" customHeight="1" spans="1:7">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+    <row r="27" ht="28" hidden="1" customHeight="1" spans="1:7">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="6" t="s">
         <v>71</v>
       </c>
@@ -1939,9 +2078,9 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" ht="28" customHeight="1" spans="1:7">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+    <row r="28" ht="28" hidden="1" customHeight="1" spans="1:7">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="6" t="s">
         <v>73</v>
       </c>
@@ -1956,9 +2095,9 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" ht="28" customHeight="1" spans="1:7">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+    <row r="29" ht="28" hidden="1" customHeight="1" spans="1:7">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="6" t="s">
         <v>74</v>
       </c>
@@ -1974,27 +2113,27 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" ht="28" customHeight="1" spans="1:7">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="13" t="s">
+      <c r="E30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" ht="33" customHeight="1" spans="1:7">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+    <row r="31" ht="33" hidden="1" customHeight="1" spans="1:7">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="6" t="s">
         <v>79</v>
       </c>
@@ -2010,69 +2149,69 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" ht="51" customHeight="1" spans="1:7">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" ht="33" customHeight="1" spans="1:7">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="13" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" ht="35" customHeight="1" spans="1:7">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" ht="34" customHeight="1" spans="1:7">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
+    <row r="35" ht="34" hidden="1" customHeight="1" spans="1:7">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="6" t="s">
         <v>90</v>
       </c>
@@ -2087,9 +2226,9 @@
       </c>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" ht="32" customHeight="1" spans="1:7">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
+    <row r="36" ht="32" hidden="1" customHeight="1" spans="1:7">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="6" t="s">
         <v>92</v>
       </c>
@@ -2104,9 +2243,9 @@
       </c>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" ht="28" customHeight="1" spans="1:7">
-      <c r="A37" s="14"/>
-      <c r="B37" s="12" t="s">
+    <row r="37" ht="28" hidden="1" customHeight="1" spans="1:7">
+      <c r="A37" s="11"/>
+      <c r="B37" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -2123,9 +2262,9 @@
       </c>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" ht="34" customHeight="1" spans="1:7">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+    <row r="38" ht="34" hidden="1" customHeight="1" spans="1:7">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="6" t="s">
         <v>52</v>
       </c>
@@ -2138,9 +2277,9 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" ht="28" customHeight="1" spans="1:7">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
+    <row r="39" ht="28" hidden="1" customHeight="1" spans="1:7">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="6" t="s">
         <v>98</v>
       </c>
@@ -2153,9 +2292,9 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" ht="32" customHeight="1" spans="1:7">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
+    <row r="40" ht="32" hidden="1" customHeight="1" spans="1:7">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="6" t="s">
         <v>100</v>
       </c>
@@ -2168,9 +2307,9 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" ht="31" customHeight="1" spans="1:7">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
+    <row r="41" ht="31" hidden="1" customHeight="1" spans="1:7">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="6" t="s">
         <v>102</v>
       </c>
@@ -2184,68 +2323,68 @@
       <c r="G41" s="6"/>
     </row>
     <row r="42" ht="36" customHeight="1" spans="1:7">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="13" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="13" t="s">
+      <c r="E42" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:7">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="13" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="13" t="s">
+      <c r="E43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" ht="27" customHeight="1" spans="1:7">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
+    <row r="44" ht="27" hidden="1" customHeight="1" spans="1:7">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="6" t="s">
         <v>110</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" ht="30" customHeight="1" spans="1:7">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
+    <row r="45" ht="30" hidden="1" customHeight="1" spans="1:7">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -2253,9 +2392,9 @@
       </c>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" ht="41" customHeight="1" spans="1:7">
-      <c r="A46" s="14"/>
-      <c r="B46" s="12" t="s">
+    <row r="46" ht="41" hidden="1" customHeight="1" spans="1:7">
+      <c r="A46" s="11"/>
+      <c r="B46" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -2264,7 +2403,7 @@
       <c r="D46" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -2272,16 +2411,16 @@
       </c>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" ht="35" customHeight="1" spans="1:7">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
+    <row r="47" ht="35" hidden="1" customHeight="1" spans="1:7">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="6" t="s">
         <v>116</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -2289,9 +2428,9 @@
       </c>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" ht="31" customHeight="1" spans="1:7">
-      <c r="A48" s="14"/>
-      <c r="B48" s="12" t="s">
+    <row r="48" ht="31" hidden="1" customHeight="1" spans="1:7">
+      <c r="A48" s="11"/>
+      <c r="B48" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -2300,7 +2439,7 @@
       <c r="D48" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F48" s="6" t="s">
@@ -2308,79 +2447,71 @@
       </c>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" ht="36" customHeight="1" spans="1:7">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13" t="s">
+    <row r="49" ht="37" hidden="1" customHeight="1" spans="1:7">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" ht="32" customHeight="1" spans="1:7">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" ht="37" customHeight="1" spans="1:7">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" ht="32" customHeight="1" spans="1:7">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="13" t="s">
+      <c r="G50" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" ht="42" customHeight="1" spans="1:7">
+      <c r="A51" s="12"/>
+      <c r="B51" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G51" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" ht="42" customHeight="1" spans="1:7">
-      <c r="A52" s="15"/>
-      <c r="B52" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52" s="13" t="s">
+      <c r="G51" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="53" ht="34" customHeight="1" spans="1:7">
+    <row r="52" ht="34" customHeight="1" spans="1:7">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" ht="41" customHeight="1" spans="1:7">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2389,7 +2520,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" ht="41" customHeight="1" spans="1:7">
+    <row r="54" ht="35" customHeight="1" spans="1:7">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2398,7 +2529,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" ht="35" customHeight="1" spans="1:7">
+    <row r="55" ht="39" customHeight="1" spans="1:7">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2407,7 +2538,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" ht="39" customHeight="1" spans="1:7">
+    <row r="56" ht="52" customHeight="1" spans="1:7">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2416,7 +2547,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" ht="52" customHeight="1" spans="1:7">
+    <row r="57" ht="49" customHeight="1" spans="1:7">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2425,7 +2556,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" ht="49" customHeight="1" spans="1:7">
+    <row r="58" ht="43" customHeight="1" spans="1:7">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2434,7 +2565,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" ht="43" customHeight="1" spans="1:7">
+    <row r="59" ht="39" customHeight="1" spans="1:7">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2443,7 +2574,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" ht="39" customHeight="1" spans="1:7">
+    <row r="60" ht="46" customHeight="1" spans="1:7">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2452,7 +2583,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" ht="46" customHeight="1" spans="1:7">
+    <row r="61" ht="63" customHeight="1" spans="1:7">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2461,7 +2592,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" ht="63" customHeight="1" spans="1:7">
+    <row r="62" ht="58" customHeight="1" spans="1:7">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2470,7 +2601,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" ht="58" customHeight="1" spans="1:7">
+    <row r="63" ht="52" customHeight="1" spans="1:7">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2479,7 +2610,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" ht="52" customHeight="1" spans="1:7">
+    <row r="64" ht="64" customHeight="1" spans="1:7">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2488,7 +2619,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" ht="64" customHeight="1" spans="1:7">
+    <row r="65" ht="62" customHeight="1" spans="1:7">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2506,7 +2637,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" ht="62" customHeight="1" spans="1:7">
+    <row r="67" ht="51" customHeight="1" spans="1:7">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2515,32 +2646,15 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" ht="51" customHeight="1" spans="1:7">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="A15:A31"/>
-    <mergeCell ref="A32:A52"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>